--- a/2 курс/Анализ данных/Лабораторная 4/Lab 4.xlsx
+++ b/2 курс/Анализ данных/Лабораторная 4/Lab 4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anast\Documents\GitHub\FA\2 курс\Анализ данных\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anast\Documents\GitHub\FA\2 курс\Анализ данных\Лабораторная 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1524,6 +1524,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1634,39 +1667,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1957,39 +1957,38 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:E6"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="2" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="5" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="62"/>
+      <c r="E1" s="73"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64" t="s">
+      <c r="C2" s="74"/>
+      <c r="D2" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="65"/>
+      <c r="E2" s="76"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2029,29 +2028,29 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="57" t="s">
+      <c r="B5" s="78"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="58"/>
+      <c r="E5" s="69"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="54">
+      <c r="A6" s="65">
         <f xml:space="preserve"> (A4+1)/(C4^(A4+1) - B4^(A4+1))</f>
         <v>2.05761316872428E-3</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="59">
+      <c r="B6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="70">
         <f>A6*(C4^(A4+D4+1) - B4^(A4+D4+1))/(A4+D4+1) + E4</f>
         <v>42.600000000000009</v>
       </c>
-      <c r="E6" s="55"/>
+      <c r="E6" s="66"/>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -2079,7 +2078,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2089,27 +2088,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70" t="s">
+      <c r="D1" s="81"/>
+      <c r="E1" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="70"/>
+      <c r="F1" s="81"/>
       <c r="G1" s="27" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="88">
+      <c r="B2" s="99">
         <v>0.22</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -2125,14 +2124,14 @@
         <f xml:space="preserve"> _xlfn.EXPON.DIST(D2, B2, 1)</f>
         <v>0.35596357891685859</v>
       </c>
-      <c r="G2" s="74">
+      <c r="G2" s="85">
         <f>F3-F2</f>
         <v>0.4719915572600909</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="80"/>
-      <c r="B3" s="90"/>
+      <c r="A3" s="91"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="25" t="s">
         <v>56</v>
       </c>
@@ -2146,7 +2145,7 @@
         <f xml:space="preserve">  _xlfn.EXPON.DIST(D3, B2, 1)</f>
         <v>0.82795513617694949</v>
       </c>
-      <c r="G3" s="75"/>
+      <c r="G3" s="86"/>
     </row>
     <row r="4" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -2177,14 +2176,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="70"/>
+      <c r="D1" s="81"/>
       <c r="E1" s="27" t="s">
         <v>60</v>
       </c>
@@ -2205,7 +2204,7 @@
       <c r="D2" s="15">
         <v>14.6</v>
       </c>
-      <c r="E2" s="74">
+      <c r="E2" s="85">
         <f xml:space="preserve"> (D3-D2)/(B3-B2)</f>
         <v>0.88560885608856088</v>
       </c>
@@ -2226,7 +2225,7 @@
       <c r="D3" s="23">
         <v>38.6</v>
       </c>
-      <c r="E3" s="75"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="52"/>
       <c r="G3" s="35"/>
       <c r="L3" s="35"/>
@@ -2256,44 +2255,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="63" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="99" t="s">
+      <c r="D1" s="62" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="91">
+      <c r="B2" s="54">
         <v>98.6</v>
       </c>
-      <c r="C2" s="91">
+      <c r="C2" s="54">
         <v>8</v>
       </c>
-      <c r="D2" s="92">
+      <c r="D2" s="55">
         <v>0.45</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="96">
+      <c r="B3" s="59">
         <v>22</v>
       </c>
-      <c r="C3" s="96">
+      <c r="C3" s="59">
         <v>5.5</v>
       </c>
-      <c r="D3" s="97" t="s">
+      <c r="D3" s="60" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2301,23 +2300,23 @@
       <c r="A4" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="95" t="s">
+      <c r="D4" s="58" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="103"/>
-      <c r="B5" s="93">
+      <c r="B5" s="56">
         <f xml:space="preserve"> B2- B3</f>
         <v>76.599999999999994</v>
       </c>
-      <c r="C5" s="93">
+      <c r="C5" s="56">
         <f xml:space="preserve">  D2*SQRT(C2*C3)</f>
         <v>2.98496231131986</v>
       </c>
@@ -2345,7 +2344,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2354,44 +2353,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="63" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="99" t="s">
+      <c r="D1" s="62" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="91">
+      <c r="B2" s="54">
         <v>4</v>
       </c>
-      <c r="C2" s="91">
+      <c r="C2" s="54">
         <v>0.7</v>
       </c>
-      <c r="D2" s="92">
+      <c r="D2" s="55">
         <v>-0.27</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="96">
+      <c r="B3" s="59">
         <v>13</v>
       </c>
-      <c r="C3" s="96">
+      <c r="C3" s="59">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D3" s="97" t="s">
+      <c r="D3" s="60" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2399,23 +2398,23 @@
       <c r="A4" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="95" t="s">
+      <c r="D4" s="58" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="103"/>
-      <c r="B5" s="93">
+      <c r="B5" s="56">
         <f xml:space="preserve"> 2*B2 + 8*B3</f>
         <v>112</v>
       </c>
-      <c r="C5" s="93">
+      <c r="C5" s="56">
         <f xml:space="preserve">  D2*SQRT(C2*C3)</f>
         <v>-0.1675305942208766</v>
       </c>
@@ -2447,20 +2446,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="73"/>
     </row>
     <row r="2" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="69"/>
+      <c r="C2" s="80"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="44" t="s">
@@ -2536,28 +2535,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="62"/>
+      <c r="E1" s="73"/>
     </row>
     <row r="2" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64" t="s">
+      <c r="C2" s="74"/>
+      <c r="D2" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="65"/>
+      <c r="E2" s="76"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="44" t="s">
@@ -2594,28 +2593,28 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="57" t="s">
+      <c r="B5" s="78"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="58"/>
+      <c r="E5" s="69"/>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="54">
+      <c r="A6" s="65">
         <f xml:space="preserve"> (A4+1)/(C4^(A4+1) - B4^(A4+1))</f>
         <v>0.15151515151515152</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="59">
+      <c r="B6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="70">
         <f>A6*(E4^(A4+1) - D4^(A4+1))/(A4+1)</f>
         <v>3.125E-2</v>
       </c>
-      <c r="E6" s="55"/>
+      <c r="E6" s="66"/>
     </row>
     <row r="7" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -2638,7 +2637,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2650,17 +2649,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70" t="s">
+      <c r="C1" s="81"/>
+      <c r="D1" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="71"/>
+      <c r="E1" s="82"/>
       <c r="F1" s="21" t="s">
         <v>17</v>
       </c>
@@ -2673,7 +2672,7 @@
       <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="72"/>
+      <c r="A2" s="83"/>
       <c r="B2" s="18" t="s">
         <v>3</v>
       </c>
@@ -2693,13 +2692,13 @@
         <f>_xlfn.BINOM.DIST(E2-1,C2,C3,1)</f>
         <v>1.6417591968495824E-3</v>
       </c>
-      <c r="H2" s="74">
+      <c r="H2" s="85">
         <f xml:space="preserve"> G3 - G2</f>
         <v>0.9983562957939025</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="73"/>
+      <c r="A3" s="84"/>
       <c r="B3" s="25" t="s">
         <v>21</v>
       </c>
@@ -2719,20 +2718,20 @@
         <f xml:space="preserve"> _xlfn.BINOM.DIST(E3, C2, C3, 1)</f>
         <v>0.99999805499075212</v>
       </c>
-      <c r="H3" s="75"/>
+      <c r="H3" s="86"/>
     </row>
     <row r="4" spans="1:9" ht="57.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="77"/>
+      <c r="E4" s="88"/>
       <c r="F4" s="30" t="s">
         <v>17</v>
       </c>
@@ -2744,7 +2743,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="72"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="15" t="s">
         <v>29</v>
       </c>
@@ -2766,13 +2765,13 @@
         <f>_xlfn.NORM.DIST(E2,C5,C6,1)</f>
         <v>2.3388674905236322E-3</v>
       </c>
-      <c r="H5" s="74">
+      <c r="H5" s="85">
         <f>G6-G5</f>
         <v>0.99765991827573997</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="73"/>
+      <c r="A6" s="84"/>
       <c r="B6" s="23" t="s">
         <v>30</v>
       </c>
@@ -2794,7 +2793,7 @@
         <f xml:space="preserve"> _xlfn.NORM.DIST(E3,C5,C6,1)</f>
         <v>0.99999878576626355</v>
       </c>
-      <c r="H6" s="75"/>
+      <c r="H6" s="86"/>
     </row>
     <row r="7" spans="1:9" ht="14.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
@@ -2916,7 +2915,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E3"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2927,17 +2926,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70" t="s">
+      <c r="C1" s="81"/>
+      <c r="D1" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="71"/>
+      <c r="E1" s="82"/>
       <c r="F1" s="21" t="s">
         <v>17</v>
       </c>
@@ -2949,7 +2948,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="72"/>
+      <c r="A2" s="83"/>
       <c r="B2" s="18" t="s">
         <v>3</v>
       </c>
@@ -2969,13 +2968,13 @@
         <f>_xlfn.BINOM.DIST(E2-1,C2,C3,1)</f>
         <v>0.92266940268745978</v>
       </c>
-      <c r="H2" s="74">
+      <c r="H2" s="85">
         <f xml:space="preserve"> G3 - G2</f>
         <v>7.7330597312540217E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="73"/>
+      <c r="A3" s="84"/>
       <c r="B3" s="25" t="s">
         <v>21</v>
       </c>
@@ -2995,20 +2994,20 @@
         <f xml:space="preserve"> _xlfn.BINOM.DIST(E3, C2, C3, 1)</f>
         <v>1</v>
       </c>
-      <c r="H3" s="75"/>
+      <c r="H3" s="86"/>
     </row>
     <row r="4" spans="1:8" ht="57.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="77"/>
+      <c r="E4" s="88"/>
       <c r="F4" s="30" t="s">
         <v>17</v>
       </c>
@@ -3020,7 +3019,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="72"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="15" t="s">
         <v>29</v>
       </c>
@@ -3042,13 +3041,13 @@
         <f>_xlfn.NORM.DIST(E2,C5,C6,1)</f>
         <v>0.93190088352622757</v>
       </c>
-      <c r="H5" s="74">
+      <c r="H5" s="85">
         <f>G6-G5</f>
         <v>6.8099116473771426E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="73"/>
+      <c r="A6" s="84"/>
       <c r="B6" s="23" t="s">
         <v>30</v>
       </c>
@@ -3070,7 +3069,7 @@
         <f xml:space="preserve"> _xlfn.NORM.DIST(E3,C5,C6,1)</f>
         <v>0.999999999999999</v>
       </c>
-      <c r="H6" s="75"/>
+      <c r="H6" s="86"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -3093,7 +3092,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3105,17 +3104,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70" t="s">
+      <c r="C1" s="81"/>
+      <c r="D1" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="71"/>
+      <c r="E1" s="82"/>
       <c r="F1" s="37" t="s">
         <v>43</v>
       </c>
@@ -3125,54 +3124,54 @@
       <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="72"/>
+      <c r="A2" s="83"/>
       <c r="B2" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="15">
         <v>400</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="88">
+      <c r="E2" s="99">
         <v>310</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="81">
+      <c r="G2" s="92">
         <f xml:space="preserve"> _xlfn.BINOM.DIST(E2,C2,C3,0)</f>
         <v>2.2353768010763515E-2</v>
       </c>
       <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:8" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="73"/>
+      <c r="A3" s="84"/>
       <c r="B3" s="25" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="23">
         <v>0.8</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="82"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="93"/>
       <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="57.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="85" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="85"/>
+      <c r="E4" s="96"/>
       <c r="F4" s="37" t="s">
         <v>41</v>
       </c>
@@ -3182,7 +3181,7 @@
       <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="72"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="15" t="s">
         <v>29</v>
       </c>
@@ -3197,17 +3196,17 @@
         <f xml:space="preserve">  C2*C3^2</f>
         <v>256.00000000000006</v>
       </c>
-      <c r="F5" s="79" t="s">
+      <c r="F5" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="83">
+      <c r="G5" s="94">
         <f>_xlfn.NORM.DIST(E2,C5,C6,0)</f>
         <v>2.2831135673627736E-2</v>
       </c>
       <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:8" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="73"/>
+      <c r="A6" s="84"/>
       <c r="B6" s="23" t="s">
         <v>30</v>
       </c>
@@ -3222,8 +3221,8 @@
         <f xml:space="preserve"> C2*C3*(1 - C3)</f>
         <v>63.999999999999986</v>
       </c>
-      <c r="F6" s="80"/>
-      <c r="G6" s="84"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="95"/>
       <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -3262,17 +3261,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70" t="s">
+      <c r="C1" s="81"/>
+      <c r="D1" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="71"/>
+      <c r="E1" s="82"/>
       <c r="F1" s="37" t="s">
         <v>43</v>
       </c>
@@ -3281,52 +3280,52 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="72"/>
+      <c r="A2" s="83"/>
       <c r="B2" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="15">
         <v>1000</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="88">
+      <c r="E2" s="99">
         <v>4</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="81">
+      <c r="G2" s="92">
         <f xml:space="preserve"> _xlfn.BINOM.DIST(E2,C2,C3,0)</f>
         <v>4.7013427259424728E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="73"/>
+      <c r="A3" s="84"/>
       <c r="B3" s="25" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="23">
         <v>1.5E-3</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="82"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="93"/>
     </row>
     <row r="4" spans="1:8" ht="57.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="85" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="85"/>
+      <c r="E4" s="96"/>
       <c r="F4" s="37" t="s">
         <v>41</v>
       </c>
@@ -3335,11 +3334,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="72"/>
-      <c r="B5" s="88" t="s">
+      <c r="A5" s="83"/>
+      <c r="B5" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="88">
+      <c r="C5" s="99">
         <f xml:space="preserve"> C2*C3</f>
         <v>1.5</v>
       </c>
@@ -3350,18 +3349,18 @@
         <f xml:space="preserve">  C2*C3^2</f>
         <v>2.2500000000000003E-3</v>
       </c>
-      <c r="F5" s="79" t="s">
+      <c r="F5" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="83">
+      <c r="G5" s="94">
         <f xml:space="preserve"> _xlfn.POISSON.DIST(E2, C5, 0)</f>
         <v>4.7066518156309439E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="73"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
+      <c r="A6" s="84"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
       <c r="D6" s="23" t="s">
         <v>33</v>
       </c>
@@ -3369,8 +3368,8 @@
         <f xml:space="preserve"> C2*C3*(1 - C3)</f>
         <v>1.4977500000000001</v>
       </c>
-      <c r="F6" s="80"/>
-      <c r="G6" s="84"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="95"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -3412,17 +3411,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70" t="s">
+      <c r="C1" s="81"/>
+      <c r="D1" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="71"/>
+      <c r="E1" s="82"/>
       <c r="F1" s="37" t="s">
         <v>43</v>
       </c>
@@ -3431,7 +3430,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="72"/>
+      <c r="A2" s="83"/>
       <c r="B2" s="18" t="s">
         <v>3</v>
       </c>
@@ -3444,16 +3443,16 @@
       <c r="E2" s="15">
         <v>0</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="81">
+      <c r="G2" s="92">
         <f xml:space="preserve"> _xlfn.BINOM.DIST(E3,C2,C3,1)</f>
         <v>0.64723190747106973</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="73"/>
+      <c r="A3" s="84"/>
       <c r="B3" s="25" t="s">
         <v>21</v>
       </c>
@@ -3466,21 +3465,21 @@
       <c r="E3" s="23">
         <v>3</v>
       </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="82"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="93"/>
     </row>
     <row r="4" spans="1:7" ht="57.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="85" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="85"/>
+      <c r="E4" s="96"/>
       <c r="F4" s="37" t="s">
         <v>41</v>
       </c>
@@ -3489,11 +3488,11 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="72"/>
-      <c r="B5" s="88" t="s">
+      <c r="A5" s="83"/>
+      <c r="B5" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="88">
+      <c r="C5" s="99">
         <f xml:space="preserve"> C2*C3</f>
         <v>3</v>
       </c>
@@ -3504,18 +3503,18 @@
         <f xml:space="preserve">  C2*C3^2</f>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F5" s="79" t="s">
+      <c r="F5" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="83">
+      <c r="G5" s="94">
         <f xml:space="preserve"> _xlfn.POISSON.DIST(E3, C5, 1)</f>
         <v>0.64723188878223126</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="73"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
+      <c r="A6" s="84"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
       <c r="D6" s="23" t="s">
         <v>33</v>
       </c>
@@ -3523,8 +3522,8 @@
         <f xml:space="preserve"> C2*C3*(1 - C3)</f>
         <v>2.9969999999999999</v>
       </c>
-      <c r="F6" s="80"/>
-      <c r="G6" s="84"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="95"/>
     </row>
     <row r="7" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -3551,7 +3550,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3561,18 +3560,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70" t="s">
+      <c r="D1" s="81"/>
+      <c r="E1" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="70"/>
+      <c r="F1" s="81"/>
       <c r="G1" s="27" t="s">
         <v>53</v>
       </c>
@@ -3599,7 +3598,7 @@
         <f xml:space="preserve"> _xlfn.NORM.DIST(D2, B2, B3, 1)</f>
         <v>0.38542542189245066</v>
       </c>
-      <c r="G2" s="74">
+      <c r="G2" s="85">
         <f>F3-F2</f>
         <v>0.2104628199169708</v>
       </c>
@@ -3626,7 +3625,7 @@
         <f xml:space="preserve"> _xlfn.NORM.DIST(D3, B2, B3, 1)</f>
         <v>0.59588824180942146</v>
       </c>
-      <c r="G3" s="75"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="41"/>
       <c r="I3" s="41"/>
     </row>
